--- a/regionseng/11/standard of living/expenditures.xlsx
+++ b/regionseng/11/standard of living/expenditures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -319,7 +319,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -391,25 +391,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -434,6 +415,29 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
@@ -745,35 +749,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="37"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="8">
         <v>2011</v>
@@ -808,8 +816,14 @@
       <c r="L2" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="36">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -843,11 +857,17 @@
       <c r="K3" s="14">
         <v>20.68756852859622</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="14">
         <v>24.429118134843307</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="22">
+        <v>28.266251643494172</v>
+      </c>
+      <c r="N3" s="26">
+        <v>29.566875770597623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -881,11 +901,17 @@
       <c r="K4" s="15">
         <v>19.072738653793404</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="15">
         <v>22.508180521997556</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="23">
+        <v>26.0057153070554</v>
+      </c>
+      <c r="N4" s="27">
+        <v>27.45031254767725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -919,11 +945,17 @@
       <c r="K5" s="16">
         <v>8.6959796025898974</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="16">
         <v>10.905248028509641</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="24">
+        <v>11.963713414472272</v>
+      </c>
+      <c r="N5" s="28">
+        <v>11.894815743715952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -957,11 +989,17 @@
       <c r="K6" s="16">
         <v>0.75860170975112917</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="16">
         <v>0.81041627508574887</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="24">
+        <v>1.162159804678599</v>
+      </c>
+      <c r="N6" s="28">
+        <v>1.3852272667204539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
@@ -995,11 +1033,17 @@
       <c r="K7" s="16">
         <v>0.64261999143056392</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="16">
         <v>0.84721218928549635</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="24">
+        <v>1.2582783917002962</v>
+      </c>
+      <c r="N7" s="28">
+        <v>1.1666008284227107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -1033,11 +1077,17 @@
       <c r="K8" s="16">
         <v>2.0440979016644798</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="16">
         <v>2.5425319085269922</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="24">
+        <v>2.6015288192753676</v>
+      </c>
+      <c r="N8" s="28">
+        <v>2.6003483964557641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1071,11 +1121,17 @@
       <c r="K9" s="16">
         <v>3.0860540157683052</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="16">
         <v>3.2109644318020423</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="24">
+        <v>3.8035621747910819</v>
+      </c>
+      <c r="N9" s="28">
+        <v>4.6413654056158711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
@@ -1109,11 +1165,17 @@
       <c r="K10" s="16">
         <v>1.7335998739428891</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="16">
         <v>1.8005247439166321</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="24">
+        <v>2.4483181605204822</v>
+      </c>
+      <c r="N10" s="28">
+        <v>2.7840281118194707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
@@ -1147,11 +1209,17 @@
       <c r="K11" s="16">
         <v>0.18655121436564126</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="16">
         <v>0.28522847329902651</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="24">
+        <v>0.19457348774592084</v>
+      </c>
+      <c r="N11" s="28">
+        <v>0.1204351992588043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -1185,11 +1253,17 @@
       <c r="K12" s="16">
         <v>1.9252343442804978</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="16">
         <v>2.1060544715719773</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="24">
+        <v>2.5735810538713788</v>
+      </c>
+      <c r="N12" s="28">
+        <v>2.8574915956682165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -1223,11 +1297,17 @@
       <c r="K13" s="15">
         <v>1.6148298748028167</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="15">
         <v>1.9209376128457427</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="23">
+        <v>2.2605363364387761</v>
+      </c>
+      <c r="N13" s="27">
+        <v>2.1165632229203797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1261,11 +1341,17 @@
       <c r="K14" s="15">
         <v>4.4349930106137601</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="15">
         <v>6.0371054673296616</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="23">
+        <v>7.5597048036816927</v>
+      </c>
+      <c r="N14" s="27">
+        <v>8.4964640593579617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
@@ -1299,11 +1385,17 @@
       <c r="K15" s="16">
         <v>0.39092559199968974</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="16">
         <v>0.43222852627309161</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="24">
+        <v>0.43516759398714699</v>
+      </c>
+      <c r="N15" s="28">
+        <v>0.45982203695297241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>8</v>
       </c>
@@ -1337,11 +1429,17 @@
       <c r="K16" s="16">
         <v>0.50336393250338241</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="16">
         <v>0.49517810371271764</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="24">
+        <v>0.69763996672439565</v>
+      </c>
+      <c r="N16" s="28">
+        <v>0.71430339300028478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
@@ -1375,11 +1473,17 @@
       <c r="K17" s="16">
         <v>3.2405453790791836</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="16">
         <v>4.2761948588129686</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="M17" s="24">
+        <v>5.6762236359081282</v>
+      </c>
+      <c r="N17" s="28">
+        <v>5.6663751595751437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
@@ -1413,11 +1517,17 @@
       <c r="K18" s="16">
         <v>0.30015810703150425</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="16">
         <v>0.83350397853088376</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="M18" s="24">
+        <v>0.7506736070620218</v>
+      </c>
+      <c r="N18" s="28">
+        <v>1.6559634698295596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -1451,11 +1561,17 @@
       <c r="K19" s="15">
         <v>23.50773166440716</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="15">
         <v>28.545285989327216</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="M19" s="23">
+        <v>33.565420110737101</v>
+      </c>
+      <c r="N19" s="27">
+        <v>35.946776607035204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -1489,11 +1605,17 @@
       <c r="K20" s="17">
         <v>25.122561539209975</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="17">
         <v>30.466223602172956</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15">
+      <c r="M20" s="25">
+        <v>35.825956447175869</v>
+      </c>
+      <c r="N20" s="29">
+        <v>38.063339829955581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1504,7 +1626,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15">
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1515,23 +1637,25 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="8">
         <v>2011</v>
@@ -1566,8 +1690,14 @@
       <c r="L24" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="36">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -1601,11 +1731,17 @@
       <c r="K25" s="14">
         <v>700.40310046842865</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="14">
         <v>787.28930239969509</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="22">
+        <v>880.89484213461105</v>
+      </c>
+      <c r="N25" s="26">
+        <v>896.8070306718331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
@@ -1639,11 +1775,17 @@
       <c r="K26" s="15">
         <v>645.73104708151084</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="15">
         <v>725.38229352516601</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="23">
+        <v>810.44705781775747</v>
+      </c>
+      <c r="N26" s="27">
+        <v>832.60854064861576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>0</v>
       </c>
@@ -1677,11 +1819,17 @@
       <c r="K27" s="16">
         <v>294.41309484220329</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="16">
         <v>351.44883517573106</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="24">
+        <v>372.8394402096435</v>
+      </c>
+      <c r="N27" s="28">
+        <v>360.78733750146449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
@@ -1715,11 +1863,17 @@
       <c r="K28" s="16">
         <v>25.683394778651436</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="16">
         <v>26.117687111905688</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="24">
+        <v>36.217769182465041</v>
+      </c>
+      <c r="N28" s="28">
+        <v>42.01598983645745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>2</v>
       </c>
@@ -1753,11 +1907,17 @@
       <c r="K29" s="16">
         <v>21.756690922802406</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="16">
         <v>27.303527282704145</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="24">
+        <v>39.21322710906167</v>
+      </c>
+      <c r="N29" s="28">
+        <v>35.384726916513351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>3</v>
       </c>
@@ -1791,11 +1951,17 @@
       <c r="K30" s="16">
         <v>69.205450897131612</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="16">
         <v>81.93943643582206</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="24">
+        <v>81.074538904831158</v>
+      </c>
+      <c r="N30" s="28">
+        <v>78.872409186255439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
@@ -1829,11 +1995,17 @@
       <c r="K31" s="16">
         <v>104.48215786545295</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L31" s="16">
         <v>103.48134278077075</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="24">
+        <v>118.53493500907594</v>
+      </c>
+      <c r="N31" s="28">
+        <v>140.77947091767436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
@@ -1867,11 +2039,17 @@
       <c r="K32" s="16">
         <v>58.693157922492162</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="16">
         <v>58.026403645315511</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="24">
+        <v>76.29985279648443</v>
+      </c>
+      <c r="N32" s="28">
+        <v>84.443686361701282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>5</v>
       </c>
@@ -1905,11 +2083,17 @@
       <c r="K33" s="16">
         <v>6.3159210207441321</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="16">
         <v>9.1921994289197855</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="24">
+        <v>6.0637251777588688</v>
+      </c>
+      <c r="N33" s="28">
+        <v>3.6529775507449829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
@@ -1943,11 +2127,17 @@
       <c r="K34" s="16">
         <v>65.181178832032757</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="16">
         <v>67.872861663997</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="24">
+        <v>80.203569428436936</v>
+      </c>
+      <c r="N34" s="28">
+        <v>86.671942377804214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="10" t="s">
         <v>13</v>
       </c>
@@ -1981,11 +2171,17 @@
       <c r="K35" s="15">
         <v>54.672053386918009</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L35" s="15">
         <v>61.907008874528913</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="23">
+        <v>70.447784316853657</v>
+      </c>
+      <c r="N35" s="27">
+        <v>64.198490023217786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
@@ -2019,11 +2215,17 @@
       <c r="K36" s="15">
         <v>150.15214818000021</v>
       </c>
-      <c r="L36" s="29">
+      <c r="L36" s="15">
         <v>194.56079116946157</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="M36" s="23">
+        <v>235.59207827105604</v>
+      </c>
+      <c r="N36" s="27">
+        <v>257.71030944906471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>7</v>
       </c>
@@ -2057,11 +2259,17 @@
       <c r="K37" s="16">
         <v>13.235267175577452</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L37" s="16">
         <v>13.929643020614638</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+      <c r="M37" s="24">
+        <v>13.561645662899066</v>
+      </c>
+      <c r="N37" s="28">
+        <v>13.947081822129702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>8</v>
       </c>
@@ -2095,11 +2303,17 @@
       <c r="K38" s="16">
         <v>17.042005613275094</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L38" s="16">
         <v>15.958350263964201</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+      <c r="M38" s="24">
+        <v>21.741384606116583</v>
+      </c>
+      <c r="N38" s="28">
+        <v>21.66587737729224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>9</v>
       </c>
@@ -2133,11 +2347,17 @@
       <c r="K39" s="16">
         <v>109.71265316068114</v>
       </c>
-      <c r="L39" s="30">
+      <c r="L39" s="16">
         <v>137.81105190687302</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="M39" s="24">
+        <v>176.89491294205209</v>
+      </c>
+      <c r="N39" s="28">
+        <v>171.86953132818292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>10</v>
       </c>
@@ -2171,11 +2391,17 @@
       <c r="K40" s="16">
         <v>10.16222223046652</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="16">
         <v>26.861745978009655</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="24">
+        <v>23.39413505998829</v>
+      </c>
+      <c r="N40" s="28">
+        <v>50.227818921459757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="10" t="s">
         <v>15</v>
       </c>
@@ -2209,11 +2435,17 @@
       <c r="K41" s="15">
         <v>795.88319526151099</v>
       </c>
-      <c r="L41" s="29">
+      <c r="L41" s="15">
         <v>919.94308469462726</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="23">
+        <v>1046.0391360888138</v>
+      </c>
+      <c r="N41" s="27">
+        <v>1090.3188500976805</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2247,11 +2479,17 @@
       <c r="K42" s="17">
         <v>850.5552486484288</v>
       </c>
-      <c r="L42" s="31">
+      <c r="L42" s="17">
         <v>981.85009356915612</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15">
+      <c r="M42" s="25">
+        <v>1116.4869204056672</v>
+      </c>
+      <c r="N42" s="29">
+        <v>1154.5173401208983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2262,7 +2500,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="15">
+    <row r="44" spans="1:14" ht="15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2273,23 +2511,25 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="24" t="s">
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="8">
         <v>2011</v>
@@ -2324,8 +2564,14 @@
       <c r="L46" s="9">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="36">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="18" t="s">
         <v>11</v>
       </c>
@@ -2359,11 +2605,17 @@
       <c r="K47" s="14">
         <v>221.62956554005405</v>
       </c>
-      <c r="L47" s="32">
+      <c r="L47" s="14">
         <v>261.58453227765506</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="26">
+        <v>306.07412498848663</v>
+      </c>
+      <c r="N47" s="26">
+        <v>318.13548768487152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="18" t="s">
         <v>12</v>
       </c>
@@ -2397,11 +2649,17 @@
       <c r="K48" s="15">
         <v>204.32960865633746</v>
       </c>
-      <c r="L48" s="33">
+      <c r="L48" s="15">
         <v>241.01532612714274</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="27">
+        <v>281.59646555537171</v>
+      </c>
+      <c r="N48" s="27">
+        <v>295.36156059280978</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="19" t="s">
         <v>0</v>
       </c>
@@ -2435,11 +2693,17 @@
       <c r="K49" s="16">
         <v>93.161561186038028</v>
       </c>
-      <c r="L49" s="34">
+      <c r="L49" s="16">
         <v>116.77229563357757</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="28">
+        <v>129.54611602314895</v>
+      </c>
+      <c r="N49" s="28">
+        <v>127.98656973124878</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="19" t="s">
         <v>1</v>
       </c>
@@ -2473,11 +2737,17 @@
       <c r="K50" s="16">
         <v>8.1270337361146385</v>
       </c>
-      <c r="L50" s="34">
+      <c r="L50" s="16">
         <v>8.6778557088452501</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="28">
+        <v>12.584160425659519</v>
+      </c>
+      <c r="N50" s="28">
+        <v>14.904853508084589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="19" t="s">
         <v>2</v>
       </c>
@@ -2511,11 +2781,17 @@
       <c r="K51" s="16">
         <v>6.8845011588113145</v>
       </c>
-      <c r="L51" s="34">
+      <c r="L51" s="16">
         <v>9.0718626456712332</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="28">
+        <v>13.624956806758989</v>
+      </c>
+      <c r="N51" s="28">
+        <v>12.552463316158232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="19" t="s">
         <v>3</v>
       </c>
@@ -2549,11 +2825,17 @@
       <c r="K52" s="16">
         <v>21.898780866442205</v>
       </c>
-      <c r="L52" s="34">
+      <c r="L52" s="16">
         <v>27.225175154580455</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="28">
+        <v>28.170012318393411</v>
+      </c>
+      <c r="N52" s="28">
+        <v>27.979388545329126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="20" t="s">
         <v>17</v>
       </c>
@@ -2587,11 +2869,17 @@
       <c r="K53" s="16">
         <v>33.061440246224997</v>
       </c>
-      <c r="L53" s="34">
+      <c r="L53" s="16">
         <v>34.382683174105949</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="28">
+        <v>41.185933641697908</v>
+      </c>
+      <c r="N53" s="28">
+        <v>49.940448841999888</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="19" t="s">
         <v>4</v>
       </c>
@@ -2625,11 +2913,17 @@
       <c r="K54" s="16">
         <v>18.572360804565101</v>
       </c>
-      <c r="L54" s="34">
+      <c r="L54" s="16">
         <v>19.279837298752241</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="28">
+        <v>26.51100853859425</v>
+      </c>
+      <c r="N54" s="28">
+        <v>29.955756839309007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="19" t="s">
         <v>5</v>
       </c>
@@ -2663,11 +2957,17 @@
       <c r="K55" s="16">
         <v>1.9985560184936872</v>
       </c>
-      <c r="L55" s="34">
+      <c r="L55" s="16">
         <v>3.0541977147254085</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
+      <c r="M55" s="28">
+        <v>2.1068909581259536</v>
+      </c>
+      <c r="N55" s="28">
+        <v>1.2958660613281954</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="19" t="s">
         <v>6</v>
       </c>
@@ -2701,11 +3001,17 @@
       <c r="K56" s="16">
         <v>20.625374639647475</v>
       </c>
-      <c r="L56" s="34">
+      <c r="L56" s="16">
         <v>22.55141879688459</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
+      <c r="M56" s="28">
+        <v>27.867386842992673</v>
+      </c>
+      <c r="N56" s="28">
+        <v>30.746213749351963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="A57" s="18" t="s">
         <v>13</v>
       </c>
@@ -2739,11 +3045,17 @@
       <c r="K57" s="15">
         <v>17.299956883716654</v>
       </c>
-      <c r="L57" s="33">
+      <c r="L57" s="15">
         <v>20.569206150512223</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
+      <c r="M57" s="27">
+        <v>24.477659433115004</v>
+      </c>
+      <c r="N57" s="27">
+        <v>22.773927092061786</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
       <c r="A58" s="18" t="s">
         <v>14</v>
       </c>
@@ -2777,11 +3089,17 @@
       <c r="K58" s="15">
         <v>47.512861299133142</v>
       </c>
-      <c r="L58" s="33">
+      <c r="L58" s="15">
         <v>64.64471624662815</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+      <c r="M58" s="27">
+        <v>81.858396441846224</v>
+      </c>
+      <c r="N58" s="27">
+        <v>91.42077634759157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="19" t="s">
         <v>7</v>
       </c>
@@ -2815,11 +3133,17 @@
       <c r="K59" s="16">
         <v>4.1880547244407742</v>
       </c>
-      <c r="L59" s="34">
+      <c r="L59" s="16">
         <v>4.628259450796258</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+      <c r="M59" s="28">
+        <v>4.7121048178886209</v>
+      </c>
+      <c r="N59" s="28">
+        <v>4.9476214230167921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="19" t="s">
         <v>8</v>
       </c>
@@ -2853,11 +3177,17 @@
       <c r="K60" s="16">
         <v>5.3926264710639638</v>
       </c>
-      <c r="L60" s="34">
+      <c r="L60" s="16">
         <v>5.3023171748912672</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
+      <c r="M60" s="28">
+        <v>7.554222083114893</v>
+      </c>
+      <c r="N60" s="28">
+        <v>7.6858055633015203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="19" t="s">
         <v>9</v>
       </c>
@@ -2891,11 +3221,17 @@
       <c r="K61" s="16">
         <v>34.716533433370273</v>
       </c>
-      <c r="L61" s="34">
+      <c r="L61" s="16">
         <v>45.789063112976677</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
+      <c r="M61" s="28">
+        <v>61.463585781081726</v>
+      </c>
+      <c r="N61" s="28">
+        <v>60.969411810142148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
       <c r="A62" s="19" t="s">
         <v>10</v>
       </c>
@@ -2929,11 +3265,17 @@
       <c r="K62" s="16">
         <v>3.2156466702581312</v>
       </c>
-      <c r="L62" s="34">
+      <c r="L62" s="16">
         <v>8.92507650796394</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
+      <c r="M62" s="28">
+        <v>8.1284837597609751</v>
+      </c>
+      <c r="N62" s="28">
+        <v>17.817937551131081</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1">
       <c r="A63" s="18" t="s">
         <v>15</v>
       </c>
@@ -2967,11 +3309,17 @@
       <c r="K63" s="15">
         <v>251.84246995547056</v>
       </c>
-      <c r="L63" s="33">
+      <c r="L63" s="15">
         <v>305.66004237377081</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
+      <c r="M63" s="27">
+        <v>363.45486199721796</v>
+      </c>
+      <c r="N63" s="27">
+        <v>386.78233694040136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1">
       <c r="A64" s="21" t="s">
         <v>16</v>
       </c>
@@ -3005,125 +3353,139 @@
       <c r="K64" s="17">
         <v>269.14242683918718</v>
       </c>
-      <c r="L64" s="35">
+      <c r="L64" s="17">
         <v>326.22924852428304</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1">
-      <c r="A65" s="25" t="s">
+      <c r="M64" s="29">
+        <v>387.93252143033288</v>
+      </c>
+      <c r="N64" s="29">
+        <v>409.55626403246316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" customHeight="1">
+      <c r="A65" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1">
-      <c r="A66" s="26" t="s">
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1">
+      <c r="A66" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-    </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1">
-      <c r="A67" s="27" t="s">
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+    </row>
+    <row r="67" spans="1:14" ht="15" customHeight="1">
+      <c r="A67" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-    </row>
-    <row r="68" spans="1:12" ht="45" customHeight="1">
-      <c r="A68" s="22" t="s">
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+    </row>
+    <row r="68" spans="1:14" ht="45" customHeight="1">
+      <c r="A68" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-    </row>
-    <row r="69" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-    </row>
-    <row r="70" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-    </row>
-    <row r="71" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-    </row>
-    <row r="72" spans="1:12" ht="15">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+    </row>
+    <row r="69" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+    </row>
+    <row r="70" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+    </row>
+    <row r="71" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+    </row>
+    <row r="72" spans="1:14" ht="15">
       <c r="A72" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A68:N68"/>
     <mergeCell ref="A69:J69"/>
     <mergeCell ref="A70:J70"/>
     <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A66:N66"/>
+    <mergeCell ref="A67:N67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
